--- a/my_work/data1/YearMeanER56985_蒙自1.xlsx
+++ b/my_work/data1/YearMeanER56985_蒙自1.xlsx
@@ -601,16 +601,16 @@
         <v>2.809260062527287</v>
       </c>
       <c r="S2" t="n">
-        <v>301.6192792325531</v>
+        <v>3.351325324806146</v>
       </c>
       <c r="T2" t="n">
-        <v>456.2807727967125</v>
+        <v>5.0140744263375</v>
       </c>
       <c r="U2" t="n">
-        <v>338.9130295758054</v>
+        <v>3.683837277997884</v>
       </c>
       <c r="V2" t="n">
-        <v>237.150440446213</v>
+        <v>2.577722178763185</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>2.763307800699782</v>
       </c>
       <c r="S3" t="n">
-        <v>583.0816415795115</v>
+        <v>3.273720547951319</v>
       </c>
       <c r="T3" t="n">
-        <v>865.0703715508957</v>
+        <v>4.547293111873851</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7228571231902</v>
+        <v>3.527105052449814</v>
       </c>
       <c r="V3" t="n">
-        <v>510.82321002119</v>
+        <v>3.002722736453695</v>
       </c>
     </row>
     <row r="4">
@@ -737,16 +737,16 @@
         <v>3.055682475916401</v>
       </c>
       <c r="S4" t="n">
-        <v>989.9292042212845</v>
+        <v>4.5569031465525</v>
       </c>
       <c r="T4" t="n">
-        <v>1375.192561419372</v>
+        <v>5.65570860417967</v>
       </c>
       <c r="U4" t="n">
-        <v>987.4645664522448</v>
+        <v>3.600747982407654</v>
       </c>
       <c r="V4" t="n">
-        <v>772.6044455024659</v>
+        <v>2.878086502366617</v>
       </c>
     </row>
     <row r="5">
@@ -805,16 +805,16 @@
         <v>2.732259675954233</v>
       </c>
       <c r="S5" t="n">
-        <v>1367.504904840506</v>
+        <v>4.245917819619719</v>
       </c>
       <c r="T5" t="n">
-        <v>1773.981081572351</v>
+        <v>4.444442074254487</v>
       </c>
       <c r="U5" t="n">
-        <v>1285.173792576556</v>
+        <v>3.27510841420347</v>
       </c>
       <c r="V5" t="n">
-        <v>1011.610559504342</v>
+        <v>2.629176092437414</v>
       </c>
     </row>
     <row r="6">
@@ -873,16 +873,16 @@
         <v>2.714466201903359</v>
       </c>
       <c r="S6" t="n">
-        <v>1699.767421704146</v>
+        <v>3.73898260759177</v>
       </c>
       <c r="T6" t="n">
-        <v>2192.83135403125</v>
+        <v>4.703274605923929</v>
       </c>
       <c r="U6" t="n">
-        <v>1587.009636999963</v>
+        <v>3.316423400408812</v>
       </c>
       <c r="V6" t="n">
-        <v>1270.795773112897</v>
+        <v>2.845808583706447</v>
       </c>
     </row>
     <row r="7">
@@ -941,16 +941,16 @@
         <v>2.781480411679728</v>
       </c>
       <c r="S7" t="n">
-        <v>2040.281260378295</v>
+        <v>3.78299803606309</v>
       </c>
       <c r="T7" t="n">
-        <v>2660.385872138073</v>
+        <v>5.189646073766446</v>
       </c>
       <c r="U7" t="n">
-        <v>1940.474146407225</v>
+        <v>3.878053617474683</v>
       </c>
       <c r="V7" t="n">
-        <v>1522.82702326529</v>
+        <v>2.77040281234892</v>
       </c>
     </row>
     <row r="8">
@@ -1009,16 +1009,16 @@
         <v>2.811813730722179</v>
       </c>
       <c r="S8" t="n">
-        <v>2402.252483005239</v>
+        <v>4.063935785144541</v>
       </c>
       <c r="T8" t="n">
-        <v>3127.460388451139</v>
+        <v>5.189716070184973</v>
       </c>
       <c r="U8" t="n">
-        <v>2254.157340591393</v>
+        <v>3.451752693496115</v>
       </c>
       <c r="V8" t="n">
-        <v>1751.049500030657</v>
+        <v>2.510792169323011</v>
       </c>
     </row>
     <row r="9">
@@ -1077,16 +1077,16 @@
         <v>2.733552819223625</v>
       </c>
       <c r="S9" t="n">
-        <v>2758.258093701599</v>
+        <v>4.000772738683392</v>
       </c>
       <c r="T9" t="n">
-        <v>3552.75017403033</v>
+        <v>4.730543974168951</v>
       </c>
       <c r="U9" t="n">
-        <v>2581.09250134611</v>
+        <v>3.591162102697992</v>
       </c>
       <c r="V9" t="n">
-        <v>2010.975198447373</v>
+        <v>2.852570549848235</v>
       </c>
     </row>
     <row r="10">
@@ -1145,16 +1145,16 @@
         <v>2.83396229680651</v>
       </c>
       <c r="S10" t="n">
-        <v>3120.388553372824</v>
+        <v>4.068124804554535</v>
       </c>
       <c r="T10" t="n">
-        <v>3985.713652227923</v>
+        <v>4.809824419469919</v>
       </c>
       <c r="U10" t="n">
-        <v>2931.002704181709</v>
+        <v>3.84240614063368</v>
       </c>
       <c r="V10" t="n">
-        <v>2256.079889169631</v>
+        <v>2.695187622522879</v>
       </c>
     </row>
     <row r="11">
@@ -1213,16 +1213,16 @@
         <v>2.708766133889751</v>
       </c>
       <c r="S11" t="n">
-        <v>3448.553045561646</v>
+        <v>3.65090787904808</v>
       </c>
       <c r="T11" t="n">
-        <v>4396.299563312577</v>
+        <v>4.615508172268008</v>
       </c>
       <c r="U11" t="n">
-        <v>3139.54734351351</v>
+        <v>3.425597507619894</v>
       </c>
       <c r="V11" t="n">
-        <v>2483.485768859256</v>
+        <v>2.644839854162622</v>
       </c>
     </row>
     <row r="12">
@@ -1281,16 +1281,16 @@
         <v>2.814621514724022</v>
       </c>
       <c r="S12" t="n">
-        <v>3687.548382282997</v>
+        <v>3.151249929875312</v>
       </c>
       <c r="T12" t="n">
-        <v>4861.991607865041</v>
+        <v>5.168214865106926</v>
       </c>
       <c r="U12" t="n">
-        <v>3439.247468026094</v>
+        <v>3.294844804567455</v>
       </c>
       <c r="V12" t="n">
-        <v>2700.283454697642</v>
+        <v>2.385244844484238</v>
       </c>
     </row>
     <row r="13">
@@ -1349,16 +1349,16 @@
         <v>2.864616435296976</v>
       </c>
       <c r="S13" t="n">
-        <v>3999.933637159506</v>
+        <v>3.505961164515382</v>
       </c>
       <c r="T13" t="n">
-        <v>5258.336728144828</v>
+        <v>4.412234452141717</v>
       </c>
       <c r="U13" t="n">
-        <v>3761.673839296929</v>
+        <v>3.540448000819582</v>
       </c>
       <c r="V13" t="n">
-        <v>2954.848525886488</v>
+        <v>2.792938217753607</v>
       </c>
     </row>
     <row r="14">
@@ -1417,16 +1417,16 @@
         <v>2.959262182802902</v>
       </c>
       <c r="S14" t="n">
-        <v>4406.808117447315</v>
+        <v>4.559782682803588</v>
       </c>
       <c r="T14" t="n">
-        <v>5716.390215984861</v>
+        <v>5.082040904309618</v>
       </c>
       <c r="U14" t="n">
-        <v>4067.054257760891</v>
+        <v>3.357835505051988</v>
       </c>
       <c r="V14" t="n">
-        <v>3203.508624841154</v>
+        <v>2.733185186656737</v>
       </c>
     </row>
     <row r="15">
@@ -1485,16 +1485,16 @@
         <v>3.045764185845183</v>
       </c>
       <c r="S15" t="n">
-        <v>4819.184088307041</v>
+        <v>4.581711577390452</v>
       </c>
       <c r="T15" t="n">
-        <v>6201.423489128715</v>
+        <v>5.385882571957779</v>
       </c>
       <c r="U15" t="n">
-        <v>4383.041872785262</v>
+        <v>3.548282783660273</v>
       </c>
       <c r="V15" t="n">
-        <v>3451.449355033463</v>
+        <v>2.724716471510507</v>
       </c>
     </row>
     <row r="16">
@@ -1553,16 +1553,16 @@
         <v>2.857096526381638</v>
       </c>
       <c r="S16" t="n">
-        <v>5174.110919469274</v>
+        <v>3.99453936377366</v>
       </c>
       <c r="T16" t="n">
-        <v>6608.260626513987</v>
+        <v>4.580255777302544</v>
       </c>
       <c r="U16" t="n">
-        <v>4709.80986256306</v>
+        <v>3.629849149027054</v>
       </c>
       <c r="V16" t="n">
-        <v>3672.739308458358</v>
+        <v>2.434942064091368</v>
       </c>
     </row>
     <row r="17">
@@ -1621,16 +1621,16 @@
         <v>2.820031579388692</v>
       </c>
       <c r="S17" t="n">
-        <v>5544.828013404826</v>
+        <v>4.163462592214738</v>
       </c>
       <c r="T17" t="n">
-        <v>7049.584992161333</v>
+        <v>4.90005078488623</v>
       </c>
       <c r="U17" t="n">
-        <v>5041.336817497819</v>
+        <v>3.683041803118561</v>
       </c>
       <c r="V17" t="n">
-        <v>3905.109311642245</v>
+        <v>2.552227665738898</v>
       </c>
     </row>
     <row r="18">
@@ -1689,16 +1689,16 @@
         <v>2.856122604177564</v>
       </c>
       <c r="S18" t="n">
-        <v>5820.990361816263</v>
+        <v>3.114731233373909</v>
       </c>
       <c r="T18" t="n">
-        <v>7571.084983191174</v>
+        <v>5.784615844117873</v>
       </c>
       <c r="U18" t="n">
-        <v>5414.65883371786</v>
+        <v>4.097881065469132</v>
       </c>
       <c r="V18" t="n">
-        <v>4120.047939672523</v>
+        <v>2.364031040174105</v>
       </c>
     </row>
     <row r="19">
@@ -1757,16 +1757,16 @@
         <v>2.882907430093498</v>
       </c>
       <c r="S19" t="n">
-        <v>6185.696057764408</v>
+        <v>4.041982716280413</v>
       </c>
       <c r="T19" t="n">
-        <v>8012.063769533584</v>
+        <v>4.909487936115705</v>
       </c>
       <c r="U19" t="n">
-        <v>5749.831827883535</v>
+        <v>3.687726904686325</v>
       </c>
       <c r="V19" t="n">
-        <v>4386.064136413151</v>
+        <v>2.91717638892174</v>
       </c>
     </row>
     <row r="20">
@@ -1825,16 +1825,16 @@
         <v>2.767978709602385</v>
       </c>
       <c r="S20" t="n">
-        <v>6512.018758155459</v>
+        <v>3.670718701192655</v>
       </c>
       <c r="T20" t="n">
-        <v>8423.034194243748</v>
+        <v>4.570108930178921</v>
       </c>
       <c r="U20" t="n">
-        <v>6066.811959268225</v>
+        <v>3.485520198797615</v>
       </c>
       <c r="V20" t="n">
-        <v>4635.231740519277</v>
+        <v>2.740051961902647</v>
       </c>
     </row>
     <row r="21">
@@ -1893,16 +1893,16 @@
         <v>2.757568450587541</v>
       </c>
       <c r="S21" t="n">
-        <v>6877.101193356469</v>
+        <v>4.09725726557999</v>
       </c>
       <c r="T21" t="n">
-        <v>8809.553321324192</v>
+        <v>4.297683912204598</v>
       </c>
       <c r="U21" t="n">
-        <v>6368.400372241123</v>
+        <v>3.316021012735857</v>
       </c>
       <c r="V21" t="n">
-        <v>4856.198262847016</v>
+        <v>2.458314003182878</v>
       </c>
     </row>
     <row r="22">
@@ -1961,16 +1961,16 @@
         <v>2.947615008210936</v>
       </c>
       <c r="S22" t="n">
-        <v>7214.653851831662</v>
+        <v>3.796110174897502</v>
       </c>
       <c r="T22" t="n">
-        <v>9272.29231558547</v>
+        <v>5.132271188719631</v>
       </c>
       <c r="U22" t="n">
-        <v>6660.716369233202</v>
+        <v>3.213391500052348</v>
       </c>
       <c r="V22" t="n">
-        <v>5080.862434972131</v>
+        <v>2.468722675307623</v>
       </c>
     </row>
     <row r="23">
@@ -2029,16 +2029,16 @@
         <v>2.821905232976826</v>
       </c>
       <c r="S23" t="n">
-        <v>7578.547254501874</v>
+        <v>4.040544097198977</v>
       </c>
       <c r="T23" t="n">
-        <v>9707.598508376943</v>
+        <v>4.839983120661504</v>
       </c>
       <c r="U23" t="n">
-        <v>6955.756007777813</v>
+        <v>3.241880761355032</v>
       </c>
       <c r="V23" t="n">
-        <v>5295.061904255862</v>
+        <v>2.355089043033024</v>
       </c>
     </row>
     <row r="24">
@@ -2097,16 +2097,16 @@
         <v>2.705289519333884</v>
       </c>
       <c r="S24" t="n">
-        <v>7865.308910446993</v>
+        <v>3.231135556025753</v>
       </c>
       <c r="T24" t="n">
-        <v>10129.75433596795</v>
+        <v>4.692261656172178</v>
       </c>
       <c r="U24" t="n">
-        <v>7284.44630164735</v>
+        <v>3.647606314625218</v>
       </c>
       <c r="V24" t="n">
-        <v>5524.479133840849</v>
+        <v>2.519264332913272</v>
       </c>
     </row>
     <row r="25">
@@ -2165,16 +2165,16 @@
         <v>2.78640859749881</v>
       </c>
       <c r="S25" t="n">
-        <v>8185.823435007809</v>
+        <v>3.597174001298233</v>
       </c>
       <c r="T25" t="n">
-        <v>10497.81848880922</v>
+        <v>4.385369582322912</v>
       </c>
       <c r="U25" t="n">
-        <v>7631.839796732993</v>
+        <v>3.815664145655108</v>
       </c>
       <c r="V25" t="n">
-        <v>5761.320740295288</v>
+        <v>2.689447986374788</v>
       </c>
     </row>
     <row r="26">
@@ -2233,16 +2233,16 @@
         <v>2.784784975617606</v>
       </c>
       <c r="S26" t="n">
-        <v>8537.223377830438</v>
+        <v>4.034058145726482</v>
       </c>
       <c r="T26" t="n">
-        <v>10937.98803612285</v>
+        <v>4.994999066246662</v>
       </c>
       <c r="U26" t="n">
-        <v>7935.215401655602</v>
+        <v>3.451587292901831</v>
       </c>
       <c r="V26" t="n">
-        <v>5979.09440166308</v>
+        <v>2.449590103935146</v>
       </c>
     </row>
     <row r="27">
@@ -2301,16 +2301,16 @@
         <v>2.879287954150262</v>
       </c>
       <c r="S27" t="n">
-        <v>8839.615443557741</v>
+        <v>3.367320042560812</v>
       </c>
       <c r="T27" t="n">
-        <v>11394.30967393061</v>
+        <v>5.36414694039536</v>
       </c>
       <c r="U27" t="n">
-        <v>8189.203579558095</v>
+        <v>4.022496331178021</v>
       </c>
       <c r="V27" t="n">
-        <v>6189.826192761489</v>
+        <v>2.733094630799298</v>
       </c>
     </row>
     <row r="28">
@@ -2369,16 +2369,16 @@
         <v>2.770768585838602</v>
       </c>
       <c r="S28" t="n">
-        <v>9127.430368382526</v>
+        <v>3.685851200852564</v>
       </c>
       <c r="T28" t="n">
-        <v>11810.23602869209</v>
+        <v>5.201117304961357</v>
       </c>
       <c r="U28" t="n">
-        <v>8521.102745262266</v>
+        <v>3.999067405182738</v>
       </c>
       <c r="V28" t="n">
-        <v>6429.304505417948</v>
+        <v>2.721476486373667</v>
       </c>
     </row>
     <row r="29">
@@ -2437,16 +2437,16 @@
         <v>2.737164374748836</v>
       </c>
       <c r="S29" t="n">
-        <v>9404.433230830513</v>
+        <v>3.793090724984354</v>
       </c>
       <c r="T29" t="n">
-        <v>12233.82227076784</v>
+        <v>4.764303993119047</v>
       </c>
       <c r="U29" t="n">
-        <v>8820.513142535488</v>
+        <v>3.612017436647645</v>
       </c>
       <c r="V29" t="n">
-        <v>6674.405868808724</v>
+        <v>2.81616863496766</v>
       </c>
     </row>
     <row r="30">
@@ -2505,16 +2505,16 @@
         <v>2.753385608459921</v>
       </c>
       <c r="S30" t="n">
-        <v>9697.167584901767</v>
+        <v>3.408361434439407</v>
       </c>
       <c r="T30" t="n">
-        <v>12631.38559545476</v>
+        <v>4.678228240465624</v>
       </c>
       <c r="U30" t="n">
-        <v>9119.86055489781</v>
+        <v>3.522784067429871</v>
       </c>
       <c r="V30" t="n">
-        <v>6884.477702223966</v>
+        <v>2.596195146953788</v>
       </c>
     </row>
     <row r="31">
@@ -2573,16 +2573,16 @@
         <v>2.68866129092818</v>
       </c>
       <c r="S31" t="n">
-        <v>10011.19533950047</v>
+        <v>3.648690988886671</v>
       </c>
       <c r="T31" t="n">
-        <v>13001.30797839894</v>
+        <v>4.407066013936952</v>
       </c>
       <c r="U31" t="n">
-        <v>9401.775420438124</v>
+        <v>3.171529440086017</v>
       </c>
       <c r="V31" t="n">
-        <v>7097.646957900663</v>
+        <v>2.424330908130929</v>
       </c>
     </row>
     <row r="32">
@@ -2641,16 +2641,16 @@
         <v>2.670145349868082</v>
       </c>
       <c r="S32" t="n">
-        <v>10277.46116087286</v>
+        <v>3.138540841410166</v>
       </c>
       <c r="T32" t="n">
-        <v>13373.99483908851</v>
+        <v>4.543300321728992</v>
       </c>
       <c r="U32" t="n">
-        <v>9684.998669087552</v>
+        <v>3.147195363621041</v>
       </c>
       <c r="V32" t="n">
-        <v>7343.069867224191</v>
+        <v>2.693991741648456</v>
       </c>
     </row>
     <row r="33">
@@ -2709,16 +2709,16 @@
         <v>2.824286358589779</v>
       </c>
       <c r="S33" t="n">
-        <v>10611.38760219517</v>
+        <v>3.745166468485861</v>
       </c>
       <c r="T33" t="n">
-        <v>13774.76788632546</v>
+        <v>4.454025797348028</v>
       </c>
       <c r="U33" t="n">
-        <v>10021.04456091181</v>
+        <v>3.68688138247706</v>
       </c>
       <c r="V33" t="n">
-        <v>7579.686905002933</v>
+        <v>2.601206842612934</v>
       </c>
     </row>
     <row r="34">
@@ -2777,16 +2777,16 @@
         <v>2.630742678964834</v>
       </c>
       <c r="S34" t="n">
-        <v>10934.41332372206</v>
+        <v>3.671583011184004</v>
       </c>
       <c r="T34" t="n">
-        <v>14163.31936740069</v>
+        <v>4.318741833764706</v>
       </c>
       <c r="U34" t="n">
-        <v>10346.12079650459</v>
+        <v>3.573512141035386</v>
       </c>
       <c r="V34" t="n">
-        <v>7803.083729492216</v>
+        <v>2.511089237021078</v>
       </c>
     </row>
     <row r="35">
@@ -2845,16 +2845,16 @@
         <v>2.593967596409098</v>
       </c>
       <c r="S35" t="n">
-        <v>11224.26227363227</v>
+        <v>3.225500361773547</v>
       </c>
       <c r="T35" t="n">
-        <v>14521.08872928681</v>
+        <v>3.978990150767965</v>
       </c>
       <c r="U35" t="n">
-        <v>10663.6807867283</v>
+        <v>3.568150026274889</v>
       </c>
       <c r="V35" t="n">
-        <v>8030.82251696438</v>
+        <v>2.502716051186799</v>
       </c>
     </row>
     <row r="36">
@@ -2913,16 +2913,16 @@
         <v>2.644526747437375</v>
       </c>
       <c r="S36" t="n">
-        <v>11505.9406002138</v>
+        <v>3.165598077147847</v>
       </c>
       <c r="T36" t="n">
-        <v>14903.33006597006</v>
+        <v>4.24417941575836</v>
       </c>
       <c r="U36" t="n">
-        <v>11007.67094166061</v>
+        <v>3.819322032511914</v>
       </c>
       <c r="V36" t="n">
-        <v>8248.950354584997</v>
+        <v>2.398158192084818</v>
       </c>
     </row>
     <row r="37">
@@ -2981,16 +2981,16 @@
         <v>2.719775576658676</v>
       </c>
       <c r="S37" t="n">
-        <v>11798.47221937202</v>
+        <v>3.285524635948487</v>
       </c>
       <c r="T37" t="n">
-        <v>15296.56170702871</v>
+        <v>4.367866159059369</v>
       </c>
       <c r="U37" t="n">
-        <v>11315.1395667996</v>
+        <v>3.38356464316842</v>
       </c>
       <c r="V37" t="n">
-        <v>8479.784752141741</v>
+        <v>2.562995118119093</v>
       </c>
     </row>
     <row r="38">
@@ -3049,16 +3049,16 @@
         <v>2.640295458715636</v>
       </c>
       <c r="S38" t="n">
-        <v>12077.18338611519</v>
+        <v>3.168502150327115</v>
       </c>
       <c r="T38" t="n">
-        <v>15715.25248528844</v>
+        <v>4.648996092514174</v>
       </c>
       <c r="U38" t="n">
-        <v>11670.92769873655</v>
+        <v>3.904040180218723</v>
       </c>
       <c r="V38" t="n">
-        <v>8768.433738824349</v>
+        <v>3.16534762826873</v>
       </c>
     </row>
     <row r="39">
@@ -3117,16 +3117,16 @@
         <v>2.671047407735687</v>
       </c>
       <c r="S39" t="n">
-        <v>12361.55766685233</v>
+        <v>3.230817785252392</v>
       </c>
       <c r="T39" t="n">
-        <v>16104.71032503249</v>
+        <v>4.330844349852434</v>
       </c>
       <c r="U39" t="n">
-        <v>12030.10688572867</v>
+        <v>3.946556817090576</v>
       </c>
       <c r="V39" t="n">
-        <v>9026.146150349094</v>
+        <v>2.835627816880568</v>
       </c>
     </row>
     <row r="40">
@@ -3185,16 +3185,16 @@
         <v>2.787196751024162</v>
       </c>
       <c r="S40" t="n">
-        <v>12679.60916358415</v>
+        <v>3.569803494634087</v>
       </c>
       <c r="T40" t="n">
-        <v>16575.16162382452</v>
+        <v>5.275357146020972</v>
       </c>
       <c r="U40" t="n">
-        <v>12410.98863045881</v>
+        <v>4.182916321165584</v>
       </c>
       <c r="V40" t="n">
-        <v>9280.813643925154</v>
+        <v>2.829704630691761</v>
       </c>
     </row>
     <row r="41">
@@ -3253,16 +3253,16 @@
         <v>2.781739618237874</v>
       </c>
       <c r="S41" t="n">
-        <v>13034.25202376701</v>
+        <v>3.980140707527756</v>
       </c>
       <c r="T41" t="n">
-        <v>17056.8521972812</v>
+        <v>5.351273962667204</v>
       </c>
       <c r="U41" t="n">
-        <v>12785.03201527413</v>
+        <v>4.111155447135816</v>
       </c>
       <c r="V41" t="n">
-        <v>9521.998125632792</v>
+        <v>2.652328112373092</v>
       </c>
     </row>
     <row r="42">
@@ -3321,16 +3321,16 @@
         <v>2.635909634993631</v>
       </c>
       <c r="S42" t="n">
-        <v>13309.34245293074</v>
+        <v>3.100784109680682</v>
       </c>
       <c r="T42" t="n">
-        <v>17419.66518962327</v>
+        <v>4.045761168184022</v>
       </c>
       <c r="U42" t="n">
-        <v>13081.68444087582</v>
+        <v>3.269169359226371</v>
       </c>
       <c r="V42" t="n">
-        <v>9738.851900012452</v>
+        <v>2.385935896652589</v>
       </c>
     </row>
     <row r="43">
@@ -3389,16 +3389,16 @@
         <v>2.580348215878395</v>
       </c>
       <c r="S43" t="n">
-        <v>13553.77294847889</v>
+        <v>2.720123952283785</v>
       </c>
       <c r="T43" t="n">
-        <v>17779.92031943374</v>
+        <v>4.003306494270983</v>
       </c>
       <c r="U43" t="n">
-        <v>13391.29387631566</v>
+        <v>3.400854399989748</v>
       </c>
       <c r="V43" t="n">
-        <v>9970.578252768797</v>
+        <v>2.544698789706494</v>
       </c>
     </row>
     <row r="44">
@@ -3457,16 +3457,16 @@
         <v>2.824734835299429</v>
       </c>
       <c r="S44" t="n">
-        <v>13859.10857588425</v>
+        <v>3.422841681751625</v>
       </c>
       <c r="T44" t="n">
-        <v>18170.98013484055</v>
+        <v>4.341352987923987</v>
       </c>
       <c r="U44" t="n">
-        <v>13750.11470706928</v>
+        <v>3.98045807861116</v>
       </c>
       <c r="V44" t="n">
-        <v>10238.39010265375</v>
+        <v>2.938658137768008</v>
       </c>
     </row>
     <row r="45">
@@ -3525,16 +3525,16 @@
         <v>2.937307394636194</v>
       </c>
       <c r="S45" t="n">
-        <v>14171.28827216689</v>
+        <v>3.506694866271183</v>
       </c>
       <c r="T45" t="n">
-        <v>18599.72902025599</v>
+        <v>4.759233389047938</v>
       </c>
       <c r="U45" t="n">
-        <v>14119.45799705296</v>
+        <v>4.057866826763947</v>
       </c>
       <c r="V45" t="n">
-        <v>10471.29209530054</v>
+        <v>2.563485334614715</v>
       </c>
     </row>
     <row r="46">
@@ -3593,16 +3593,16 @@
         <v>2.560009144336603</v>
       </c>
       <c r="S46" t="n">
-        <v>14425.83586878552</v>
+        <v>2.867269905387836</v>
       </c>
       <c r="T46" t="n">
-        <v>18984.9474048399</v>
+        <v>4.285468329373356</v>
       </c>
       <c r="U46" t="n">
-        <v>14490.93212045165</v>
+        <v>4.081869458972415</v>
       </c>
       <c r="V46" t="n">
-        <v>10687.03667958374</v>
+        <v>2.372913800193665</v>
       </c>
     </row>
     <row r="47">
@@ -3661,16 +3661,16 @@
         <v>2.838362735295637</v>
       </c>
       <c r="S47" t="n">
-        <v>14738.77780336766</v>
+        <v>3.470430818544159</v>
       </c>
       <c r="T47" t="n">
-        <v>19401.24421730111</v>
+        <v>4.621783305391039</v>
       </c>
       <c r="U47" t="n">
-        <v>14831.20921353416</v>
+        <v>3.743032201537718</v>
       </c>
       <c r="V47" t="n">
-        <v>10960.03508426522</v>
+        <v>2.993166505235649</v>
       </c>
     </row>
     <row r="48">
@@ -3729,16 +3729,16 @@
         <v>2.77097568798573</v>
       </c>
       <c r="S48" t="n">
-        <v>15049.48702127415</v>
+        <v>3.490884985833678</v>
       </c>
       <c r="T48" t="n">
-        <v>19823.99108344969</v>
+        <v>4.696358785208393</v>
       </c>
       <c r="U48" t="n">
-        <v>15168.91052056593</v>
+        <v>3.752135595970482</v>
       </c>
       <c r="V48" t="n">
-        <v>11180.67033245426</v>
+        <v>2.430743637981221</v>
       </c>
     </row>
     <row r="49">
@@ -3797,16 +3797,16 @@
         <v>2.824772660700272</v>
       </c>
       <c r="S49" t="n">
-        <v>15358.04666672882</v>
+        <v>3.46722811600555</v>
       </c>
       <c r="T49" t="n">
-        <v>20267.79248425527</v>
+        <v>4.928546808690133</v>
       </c>
       <c r="U49" t="n">
-        <v>15526.01233447458</v>
+        <v>3.922325538093649</v>
       </c>
       <c r="V49" t="n">
-        <v>11417.33619367173</v>
+        <v>2.627435218191737</v>
       </c>
     </row>
     <row r="50">
@@ -3865,16 +3865,16 @@
         <v>2.815512063628067</v>
       </c>
       <c r="S50" t="n">
-        <v>15660.75629283383</v>
+        <v>3.401965046900134</v>
       </c>
       <c r="T50" t="n">
-        <v>20725.61203542698</v>
+        <v>5.085143933850672</v>
       </c>
       <c r="U50" t="n">
-        <v>15862.56088081363</v>
+        <v>3.700770346490648</v>
       </c>
       <c r="V50" t="n">
-        <v>11634.26087310575</v>
+        <v>2.466877692721424</v>
       </c>
     </row>
     <row r="51">
@@ -3933,16 +3933,16 @@
         <v>2.812857871272881</v>
       </c>
       <c r="S51" t="n">
-        <v>15975.67101146983</v>
+        <v>3.497985534977019</v>
       </c>
       <c r="T51" t="n">
-        <v>21180.46911477795</v>
+        <v>5.054310145987066</v>
       </c>
       <c r="U51" t="n">
-        <v>16215.80005654616</v>
+        <v>3.922416989879389</v>
       </c>
       <c r="V51" t="n">
-        <v>11885.16127210885</v>
+        <v>2.846823333661073</v>
       </c>
     </row>
   </sheetData>
